--- a/Re-Priceing Test Case.xlsx
+++ b/Re-Priceing Test Case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karin\Desktop\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E65B4C8A-07C4-4B99-93B6-616F656870B1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507EA493-4311-4744-B117-2A2BE1473848}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="45">
   <si>
     <t>step</t>
   </si>
@@ -103,18 +103,7 @@
     <t>The Product List is presented.</t>
   </si>
   <si>
-    <t xml:space="preserve">Enter: "1" to the Product field. </t>
-  </si>
-  <si>
     <t>"Enter New Price" is Presented.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter:
--"150"  to New Price field.
-</t>
-  </si>
-  <si>
-    <t>The New Price List is Presented.</t>
   </si>
   <si>
     <t>Repricing a Product.</t>
@@ -140,6 +129,56 @@
   </si>
   <si>
     <t>karin</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>login successful and Menu presented as expected</t>
+  </si>
+  <si>
+    <t>list presented successfully</t>
+  </si>
+  <si>
+    <t>the message presented successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter:
+-"150"  to New Price field and press Enter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The New Price List and the manager menu is Presented </t>
+  </si>
+  <si>
+    <t>new price changed and menu presented successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter: "1" to the Product field to change " REGULAR STREAMER" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter: "2" to the Product field.  To change "HD STREAMER" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter: "4" to the Product field to change "REMOTE CONTROLLER" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter: "5" to the Product field to change "VOD" </t>
+  </si>
+  <si>
+    <t>Enter: "6" to the Product field to change "SPORT PACKAGE"</t>
+  </si>
+  <si>
+    <t>Enter: "7" to the Product field to change "SPORT5 GOLD"</t>
+  </si>
+  <si>
+    <t>Enter: "8" to the Product field to change "SPORT5 PLUS"</t>
+  </si>
+  <si>
+    <t>Enter: "9" to the Product field to change "MOVIES PACKAGE"</t>
+  </si>
+  <si>
+    <t>Enter: "3" to the Product field to change " 4K STREAMER"</t>
   </si>
 </sst>
 </file>
@@ -150,7 +189,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +197,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -205,38 +244,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -336,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -347,63 +355,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,280 +705,1756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G47"/>
+  <dimension ref="A2:K196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="39.125" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="133.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20">
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="133.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+      <c r="F12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
+      <c r="E13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12">
         <v>3</v>
       </c>
       <c r="C14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="E14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14">
         <v>4</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="C15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <v>2</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F35" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="12">
+        <v>3</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="14">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="25">
         <v>43461</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="26" spans="2:7" ht="45.4" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D47" s="1"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="20">
+        <v>2</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12">
+        <v>3</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="14">
+        <v>4</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="G74" s="4"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="12">
+        <v>1</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="20">
+        <v>2</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="12">
+        <v>3</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14">
+        <v>4</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="12">
+        <v>1</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="20">
+        <v>2</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="12">
+        <v>3</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="14">
+        <v>4</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="3"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="12">
+        <v>1</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="20">
+        <v>2</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="12">
+        <v>3</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="14">
+        <v>4</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="129" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F130" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C137" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="12">
+        <v>1</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="20">
+        <v>2</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="12">
+        <v>3</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="14">
+        <v>4</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C159" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="G161" s="4"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="165" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="12">
+        <v>1</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="20">
+        <v>2</v>
+      </c>
+      <c r="C167" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="12">
+        <v>3</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="2:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="14">
+        <v>4</v>
+      </c>
+      <c r="C169" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D170" s="6"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174" s="25">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C181" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B183" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="G183" s="4"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B184" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B185" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="12">
+        <v>1</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="20">
+        <v>2</v>
+      </c>
+      <c r="C189" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F189" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="12">
+        <v>3</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="14">
+        <v>4</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E195" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D196" s="25">
+        <v>43457</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196" s="25">
+        <v>43461</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="28">
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C183:E183"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C76:E76"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:E39"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
